--- a/src/crop.xlsx
+++ b/src/crop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,100 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植图标Bundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植图标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantIconBundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantIconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>blueberry</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>pumpiking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watermelon </t>
+  </si>
+  <si>
+    <t>收成图标Bundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收成图标文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvestIconBundle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvestIconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
   </si>
 </sst>
 </file>
@@ -446,19 +540,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="3" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +567,20 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -479,8 +590,20 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,10 +613,22 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -501,10 +636,22 @@
       <c r="C4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3002</v>
+        <v>2002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -512,10 +659,22 @@
       <c r="C5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3003</v>
+        <v>2003</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -523,10 +682,22 @@
       <c r="C6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3004</v>
+        <v>2004</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -534,10 +705,22 @@
       <c r="C7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3005</v>
+        <v>2005</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -545,10 +728,22 @@
       <c r="C8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3006</v>
+        <v>2006</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -556,10 +751,22 @@
       <c r="C9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3007</v>
+        <v>2007</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -567,10 +774,22 @@
       <c r="C10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3008</v>
+        <v>2008</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -578,10 +797,22 @@
       <c r="C11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3009</v>
+        <v>2009</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -589,10 +820,22 @@
       <c r="C12">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3010</v>
+        <v>2010</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -600,10 +843,22 @@
       <c r="C13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3011</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
@@ -611,10 +866,22 @@
       <c r="C14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3012</v>
+        <v>2012</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -622,10 +889,22 @@
       <c r="C15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3013</v>
+        <v>2013</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -633,10 +912,22 @@
       <c r="C16">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3014</v>
+        <v>2014</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -644,10 +935,22 @@
       <c r="C17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3015</v>
+        <v>2015</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -655,16 +958,40 @@
       <c r="C18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3016</v>
+        <v>2016</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19">
         <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/crop.xlsx
+++ b/src/crop.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>tree</t>
+  </si>
+  <si>
+    <t>收成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,7 +569,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +591,11 @@
       <c r="G1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -602,8 +617,11 @@
       <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -625,8 +643,11 @@
       <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -648,8 +669,11 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -671,8 +695,11 @@
       <c r="G5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -694,8 +721,11 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -717,8 +747,11 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -740,8 +773,11 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -763,8 +799,11 @@
       <c r="G9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -786,8 +825,11 @@
       <c r="G10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -809,8 +851,11 @@
       <c r="G11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -832,8 +877,11 @@
       <c r="G12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -855,8 +903,11 @@
       <c r="G13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -878,8 +929,11 @@
       <c r="G14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -901,8 +955,11 @@
       <c r="G15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -924,8 +981,11 @@
       <c r="G16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -947,8 +1007,11 @@
       <c r="G17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -970,8 +1033,11 @@
       <c r="G18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -992,6 +1058,9 @@
       </c>
       <c r="G19" t="s">
         <v>47</v>
+      </c>
+      <c r="H19">
+        <v>3016</v>
       </c>
     </row>
   </sheetData>
@@ -1002,17 +1071,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1023,15 +1090,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1041,13 +1110,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1059,13 +1128,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
